--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twayair\training-record-webapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B17B651-13E1-4DD0-89F0-73A03D605E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B329CA2-E56E-47A2-BC54-C6E322CC359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -376,6 +376,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -385,95 +442,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +834,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -864,341 +861,341 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="41" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" ht="31" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="28" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" ht="28" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="14" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="28" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="23" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="38"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="38"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="38"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="38"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="38"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="38"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="25" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="38"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="25" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="25" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="25" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="38"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="25" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="38"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="25" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="38"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="25" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="38"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="25" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="28" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="82" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="5"/>
       <c r="H27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="17" customHeight="1">
       <c r="A28" s="3" t="s">
@@ -1207,19 +1204,59 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
@@ -1236,59 +1273,19 @@
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twayair\training-record-webapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B329CA2-E56E-47A2-BC54-C6E322CC359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5848F-82E6-4AA1-90C2-B460D460A71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <r>
       <rPr>
@@ -187,40 +187,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-      </rPr>
-      <t>REV.1 / 28 JAN 2020                                                                 1 OF 1                                                            FORM EM-204</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">                                      </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">                          PARTICIPANT           Company :   </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>INSTRUCTOR SIGNATURE :</t>
   </si>
   <si>
     <t xml:space="preserve">This is to certify that the above personnel were trained on T'way Air's  Procedure.           </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DATE :  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FORM EM-204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REV.1 / 28 JAN 2020                                                                                                                       </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 OF 1    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -236,10 +236,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="���� ���"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="���� ���"/>
     </font>
     <font>
@@ -290,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,26 +346,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -382,6 +375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,22 +396,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,25 +421,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -463,14 +438,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,11 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -853,357 +851,372 @@
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1"/>
     <row r="2" spans="1:10" ht="25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="28" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="41" customHeight="1">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="79.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="31" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="28" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="28" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="31" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="28" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="23" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="25" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="25" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="25" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="25" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="25" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="25" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="25" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="25" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="25" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="25" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="28" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="82" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="35"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="23" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="25" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="25" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="25" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="25" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="25" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="28" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="82" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="I27" s="8"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="17" customHeight="1">
+      <c r="A28" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="83">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -1257,6 +1270,25 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:G19"/>
@@ -1268,27 +1300,11 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>